--- a/MyExitTest/Resources/TestData.xlsx
+++ b/MyExitTest/Resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khushipatel\eclipse-workspace\MyExitTest\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khushipatel\git\FlipkartAutomationSuite\MyExitTest\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B40B4DD-2926-45A5-88AC-205D710EF4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7497D52B-8DB9-4413-8519-0C68C27929AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F35EC69A-134B-4998-B4F8-0658E6A02891}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t>Flipkart - Home | Facebook</t>
-  </si>
-  <si>
     <t>FlipkartHome</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>NotificationPreferences</t>
+  </si>
+  <si>
+    <t>Flipkart - Home | Facebookk</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19626A28-5ED1-437A-83DB-DE9B913BC022}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,31 +597,31 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -638,7 +638,7 @@
         <v>8178671094</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>1234</v>
@@ -669,12 +669,12 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -705,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -719,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -730,13 +730,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
         <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -744,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -865,7 +865,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>

--- a/MyExitTest/Resources/TestData.xlsx
+++ b/MyExitTest/Resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khushipatel\git\FlipkartAutomationSuite\MyExitTest\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7497D52B-8DB9-4413-8519-0C68C27929AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD2651-4F55-41E6-9E21-4CED90B23C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F35EC69A-134B-4998-B4F8-0658E6A02891}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>GiftCards</t>
   </si>
   <si>
-    <t>Flipkart Gift Cards: Buy Gift Cards &amp; Gift Vouchers Online | Great Offers &amp; Top Brands | Flipkart.com</t>
-  </si>
-  <si>
     <t>Facebook</t>
   </si>
   <si>
@@ -196,13 +193,16 @@
     <t>Flipkart Plus – The Ultimate Rewards Program for Flipkart Customers | Flipkart.com</t>
   </si>
   <si>
+    <t>NotificationPreferences</t>
+  </si>
+  <si>
+    <t>Flipkart - Home | Facebook</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>NotificationPreferences</t>
-  </si>
-  <si>
-    <t>Flipkart - Home | Facebookk</t>
+    <t>Flipkart Gift Cards: Buy Gift Cards &amp; Gift Vouchers Online | Great Offers &amp; Top Brands | Flipkart.commm</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19626A28-5ED1-437A-83DB-DE9B913BC022}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,31 +597,31 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -638,7 +638,7 @@
         <v>8178671094</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>1234</v>
@@ -669,12 +669,12 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -702,10 +702,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -716,10 +716,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -730,13 +730,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
         <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -744,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -854,7 +854,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -862,10 +862,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
